--- a/data/recensement-municipalité-tunis-par-arr-mun.xlsx
+++ b/data/recensement-municipalité-tunis-par-arr-mun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\office\Desktop\DI\Tunis Sport equipment shuffle barlamen\New folder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ECF68C45-8427-4D93-8F65-A78E48FC295B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E09BDB38-4B6A-446E-9788-8C7F99247A6F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Code arrondissement</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>Djebel Djelloud</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>salle</t>
+  </si>
+  <si>
+    <t>atheletic</t>
   </si>
 </sst>
 </file>
@@ -497,18 +509,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,521 +530,722 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
+        <v>111116</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>6959.9999999999991</v>
+      </c>
+      <c r="I2" s="4">
+        <v>5869.0000000000009</v>
+      </c>
+      <c r="J2" s="4">
+        <v>10751</v>
+      </c>
+      <c r="K2" s="4">
+        <v>10850</v>
+      </c>
+      <c r="L2" s="4">
+        <v>21601.000000000007</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>111121</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>32283.000000000004</v>
+      </c>
+      <c r="I3" s="4">
+        <v>28210.999999999989</v>
+      </c>
+      <c r="J3" s="4">
+        <v>55329.000000000065</v>
+      </c>
+      <c r="K3" s="4">
+        <v>54854.999999999949</v>
+      </c>
+      <c r="L3" s="4">
+        <v>110183.99999999988</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>111120</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>12208.000000000007</v>
+      </c>
+      <c r="I4" s="4">
+        <v>11148.000000000002</v>
+      </c>
+      <c r="J4" s="4">
+        <v>20035</v>
+      </c>
+      <c r="K4" s="4">
+        <v>20693.000000000004</v>
+      </c>
+      <c r="L4" s="4">
+        <v>40727.999999999993</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>111119</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>8764.0000000000018</v>
+      </c>
+      <c r="I5" s="4">
+        <v>8816.9999999999964</v>
+      </c>
+      <c r="J5" s="4">
+        <v>16960.000000000015</v>
+      </c>
+      <c r="K5" s="4">
+        <v>16892.000000000004</v>
+      </c>
+      <c r="L5" s="4">
+        <v>33851.999999999993</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>111114</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>13048.999999999998</v>
+      </c>
+      <c r="I6" s="4">
+        <v>11482.999999999995</v>
+      </c>
+      <c r="J6" s="4">
+        <v>20775.999999999985</v>
+      </c>
+      <c r="K6" s="4">
+        <v>21432.000000000004</v>
+      </c>
+      <c r="L6" s="4">
+        <v>42207.999999999985</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>111115</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>17714.999999999982</v>
+      </c>
+      <c r="I7" s="4">
+        <v>15070.000000000002</v>
+      </c>
+      <c r="J7" s="4">
+        <v>27767</v>
+      </c>
+      <c r="K7" s="4">
+        <v>27745.999999999996</v>
+      </c>
+      <c r="L7" s="4">
+        <v>55513.000000000015</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>111124</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>25164.000000000029</v>
+      </c>
+      <c r="I8" s="4">
+        <v>22221.999999999971</v>
+      </c>
+      <c r="J8" s="4">
+        <v>43558.999999999978</v>
+      </c>
+      <c r="K8" s="4">
+        <v>43759.999999999993</v>
+      </c>
+      <c r="L8" s="4">
+        <v>87319.000000000058</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>111111</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
         <v>7450.9999999999982</v>
       </c>
-      <c r="E2" s="4">
+      <c r="I9" s="4">
         <v>6241</v>
       </c>
-      <c r="F2" s="4">
+      <c r="J9" s="4">
         <v>11159.999999999998</v>
       </c>
-      <c r="G2" s="4">
+      <c r="K9" s="4">
         <v>10307</v>
       </c>
-      <c r="H2" s="4">
+      <c r="L9" s="4">
         <v>21466.999999999989</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="N9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>111117</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>15665.000000000002</v>
+      </c>
+      <c r="I10" s="4">
+        <v>12567.000000000013</v>
+      </c>
+      <c r="J10" s="4">
+        <v>20297.000000000007</v>
+      </c>
+      <c r="K10" s="4">
+        <v>21612.999999999996</v>
+      </c>
+      <c r="L10" s="4">
+        <v>41910.000000000022</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>111123</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>9390</v>
+      </c>
+      <c r="I11" s="4">
+        <v>8560</v>
+      </c>
+      <c r="J11" s="4">
+        <v>15727.999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <v>16418.999999999993</v>
+      </c>
+      <c r="L11" s="4">
+        <v>32146.999999999996</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>111112</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>31</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
         <v>14969.999999999991</v>
       </c>
-      <c r="E3" s="4">
+      <c r="I12" s="4">
         <v>11821</v>
       </c>
-      <c r="F3" s="4">
+      <c r="J12" s="4">
         <v>19227.999999999996</v>
       </c>
-      <c r="G3" s="4">
+      <c r="K12" s="4">
         <v>16982</v>
       </c>
-      <c r="H3" s="4">
+      <c r="L12" s="4">
         <v>36210.000000000007</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M12" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="N12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>111113</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
         <v>9782.0000000000036</v>
       </c>
-      <c r="E4" s="4">
+      <c r="I13" s="4">
         <v>8517.0000000000036</v>
       </c>
-      <c r="F4" s="4">
+      <c r="J13" s="4">
         <v>14463.000000000002</v>
       </c>
-      <c r="G4" s="4">
+      <c r="K13" s="4">
         <v>14721.999999999995</v>
       </c>
-      <c r="H4" s="4">
+      <c r="L13" s="4">
         <v>29184.999999999985</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M13" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>111114</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4">
-        <v>13048.999999999998</v>
-      </c>
-      <c r="E5" s="4">
-        <v>11482.999999999995</v>
-      </c>
-      <c r="F5" s="4">
-        <v>20775.999999999985</v>
-      </c>
-      <c r="G5" s="4">
-        <v>21432.000000000004</v>
-      </c>
-      <c r="H5" s="4">
-        <v>42207.999999999985</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>111115</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4">
-        <v>17714.999999999982</v>
-      </c>
-      <c r="E6" s="4">
-        <v>15070.000000000002</v>
-      </c>
-      <c r="F6" s="4">
-        <v>27767</v>
-      </c>
-      <c r="G6" s="4">
-        <v>27745.999999999996</v>
-      </c>
-      <c r="H6" s="4">
-        <v>55513.000000000015</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>111116</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4">
-        <v>6959.9999999999991</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5869.0000000000009</v>
-      </c>
-      <c r="F7" s="4">
-        <v>10751</v>
-      </c>
-      <c r="G7" s="4">
-        <v>10850</v>
-      </c>
-      <c r="H7" s="4">
-        <v>21601.000000000007</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>111117</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4">
-        <v>15665.000000000002</v>
-      </c>
-      <c r="E8" s="4">
-        <v>12567.000000000013</v>
-      </c>
-      <c r="F8" s="4">
-        <v>20297.000000000007</v>
-      </c>
-      <c r="G8" s="4">
-        <v>21612.999999999996</v>
-      </c>
-      <c r="H8" s="4">
-        <v>41910.000000000022</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="N13" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>111126</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>6747</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5922.9999999999973</v>
+      </c>
+      <c r="J14" s="4">
+        <v>11624.999999999998</v>
+      </c>
+      <c r="K14" s="4">
+        <v>12012.999999999995</v>
+      </c>
+      <c r="L14" s="4">
+        <v>23637.999999999996</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>111118</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <v>12779.000000000004</v>
       </c>
-      <c r="E9" s="4">
+      <c r="I15" s="4">
         <v>9840.0000000000018</v>
       </c>
-      <c r="F9" s="4">
+      <c r="J15" s="4">
         <v>17528.000000000004</v>
       </c>
-      <c r="G9" s="4">
+      <c r="K15" s="4">
         <v>17605.999999999996</v>
       </c>
-      <c r="H9" s="4">
+      <c r="L15" s="4">
         <v>35133.999999999993</v>
       </c>
-      <c r="I9" t="s">
+      <c r="M15" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>111119</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4">
-        <v>8764.0000000000018</v>
-      </c>
-      <c r="E10" s="4">
-        <v>8816.9999999999964</v>
-      </c>
-      <c r="F10" s="4">
-        <v>16960.000000000015</v>
-      </c>
-      <c r="G10" s="4">
-        <v>16892.000000000004</v>
-      </c>
-      <c r="H10" s="4">
-        <v>33851.999999999993</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>111120</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4">
-        <v>12208.000000000007</v>
-      </c>
-      <c r="E11" s="4">
-        <v>11148.000000000002</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20035</v>
-      </c>
-      <c r="G11" s="4">
-        <v>20693.000000000004</v>
-      </c>
-      <c r="H11" s="4">
-        <v>40727.999999999993</v>
-      </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>111121</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="4">
-        <v>32283.000000000004</v>
-      </c>
-      <c r="E12" s="4">
-        <v>28210.999999999989</v>
-      </c>
-      <c r="F12" s="4">
-        <v>55329.000000000065</v>
-      </c>
-      <c r="G12" s="4">
-        <v>54854.999999999949</v>
-      </c>
-      <c r="H12" s="4">
-        <v>110183.99999999988</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>111123</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="4">
-        <v>9390</v>
-      </c>
-      <c r="E13" s="4">
-        <v>8560</v>
-      </c>
-      <c r="F13" s="4">
-        <v>15727.999999999995</v>
-      </c>
-      <c r="G13" s="4">
-        <v>16418.999999999993</v>
-      </c>
-      <c r="H13" s="4">
-        <v>32146.999999999996</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>111124</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="4">
-        <v>25164.000000000029</v>
-      </c>
-      <c r="E14" s="4">
-        <v>22221.999999999971</v>
-      </c>
-      <c r="F14" s="4">
-        <v>43558.999999999978</v>
-      </c>
-      <c r="G14" s="4">
-        <v>43759.999999999993</v>
-      </c>
-      <c r="H14" s="4">
-        <v>87319.000000000058</v>
-      </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="N15" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>111125</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
         <v>9207.0000000000036</v>
       </c>
-      <c r="E15" s="4">
+      <c r="I16" s="4">
         <v>8248.9999999999891</v>
       </c>
-      <c r="F15" s="4">
+      <c r="J16" s="4">
         <v>13689.000000000002</v>
       </c>
-      <c r="G15" s="4">
+      <c r="K16" s="4">
         <v>14059.999999999995</v>
       </c>
-      <c r="H15" s="4">
+      <c r="L16" s="4">
         <v>27749.000000000004</v>
       </c>
-      <c r="I15" t="s">
+      <c r="M16" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>111126</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="4">
-        <v>6747</v>
-      </c>
-      <c r="E16" s="4">
-        <v>5922.9999999999973</v>
-      </c>
-      <c r="F16" s="4">
-        <v>11624.999999999998</v>
-      </c>
-      <c r="G16" s="4">
-        <v>12012.999999999995</v>
-      </c>
-      <c r="H16" s="4">
-        <v>23637.999999999996</v>
-      </c>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N16" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="7"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="7"/>
     </row>
   </sheetData>
+  <sortState ref="A2:O18">
+    <sortCondition ref="C1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>